--- a/data_all.xlsx
+++ b/data_all.xlsx
@@ -6864,7 +6864,7 @@
         <v>20</v>
       </c>
       <c r="M114">
-        <v>46.40000000000001</v>
+        <v>46.4</v>
       </c>
       <c r="N114" t="s">
         <v>262</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="P114">
-        <v>46.40000000000001</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="115" spans="1:16">
